--- a/data/law_info.xlsx
+++ b/data/law_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,94 +484,48 @@
           <t>市</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>文件名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>桂林市城市市容和环境卫生管理条例</t>
+          <t>中华人民共和国固体废物污染环境防治法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>桂林市第五届人民代表大会常务委员会第九次会议</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>广西壮族自治区第十二届人民代表大会常务委员会第三十二次会议</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2017年12月1日</t>
-        </is>
-      </c>
+          <t>第八届全国人民代表大会常务委员会第十六次会议、第十届全国人民代表大会常务委员会第十三次会议、第十二届全国人民代表大会常务委员会第三次会议、第十二届全国人民代表大会常务委员会第十四次会议、第十二届全国人民代表大会常务委员会第二十四次会议、第十三届全国人民代表大会常务委员会第十七次会议</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2018年1月1日</t>
+          <t>2020年9月1日</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>地方性法规</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>广西壮族自治区</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>桂林市</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>长江河道采砂管理条例</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>国务院令第320号</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国务院</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>国务院</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2001年10月25日</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2002年1月1日</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>行政法规</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2023年7月20日</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>法律</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2004年12月29日、2013年6月29日、2015年4月24日、2016年11月7日、2020年4月29日</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>中华人民共和国固体废物污染环境防治法.txt</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/law_info.xlsx
+++ b/data/law_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,12 +493,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>《实施〈中华人民共和国反外国制裁法〉的规定》</t>
+          <t>保障中小企业款项支付条例</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>国务院令第803号</t>
+          <t>中华人民共和国国务院令第802号</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -509,12 +509,12 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025年3月23日</t>
+          <t>2025年3月17日</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025年3月23日</t>
+          <t>2025年6月1日</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -522,57 +522,102 @@
           <t>行政法规</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025年3月17日</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>实施《中华人民共和国反外国制裁法》的规定.txt</t>
+          <t>保障中小企业款项支付条例.txt</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>保障中小企业款项支付条例</t>
+          <t>酒泉市节约用水管理办法</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>中华人民共和国国务院令第802号</t>
+          <t>酒泉市人民政府令第9号</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国务院</t>
+          <t>酒泉市人民政府</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025年3月17日</t>
+          <t>2025年3月14日</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025年6月1日</t>
+          <t>2025年5月1日</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>行政法规</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025年3月17日</t>
-        </is>
-      </c>
+          <t>地方政府规章</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>酒泉市</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>保障中小企业款项支付条例.txt</t>
+          <t>酒泉市节约用水管理办法.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>涉税专业服务管理办法(试行)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>国家税务总局令第58号</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国家税务总局</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025年3月12日</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025年5月1日</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>部门规章</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>涉税专业服务管理办法(试行).txt</t>
         </is>
       </c>
     </row>
